--- a/Rice.xlsx
+++ b/Rice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="78">
   <si>
     <t>الشركة</t>
   </si>
@@ -607,12 +607,27 @@
     <xf numFmtId="17" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,21 +645,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1565,15 +1565,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
@@ -2977,13 +2977,131 @@
       </c>
     </row>
     <row r="94" spans="1:8">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="C94" s="1">
-        <f>SUM(C76:C93)</f>
-        <v>32500</v>
+        <v>1500</v>
+      </c>
+      <c r="D94" s="27">
+        <v>43375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D95" s="27">
+        <v>43375</v>
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="G96" s="55"/>
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D96" s="27">
+        <v>43375</v>
+      </c>
+      <c r="G96" s="43"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D97" s="27">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D98" s="27">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D99" s="27">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D100" s="27">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D101" s="27">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D102" s="27">
+        <v>43381</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3009,15 +3127,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
       <c r="J1" s="25" t="s">
         <v>65</v>
       </c>
@@ -3032,17 +3150,17 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="52"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
       <c r="J2" s="24" t="s">
         <v>72</v>
       </c>
@@ -3061,17 +3179,17 @@
       <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="1:17" ht="18.75">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="51">
+      <c r="B3" s="48"/>
+      <c r="C3" s="46">
         <v>28080</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="52"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
       <c r="J3" s="24" t="s">
         <v>72</v>
       </c>
@@ -3090,17 +3208,17 @@
       <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="1:17" ht="18.75">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="54">
+      <c r="B4" s="48"/>
+      <c r="C4" s="49">
         <v>44013</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="52"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
       <c r="J4" s="24" t="s">
         <v>73</v>
       </c>
@@ -3119,13 +3237,13 @@
       <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="18.75">
-      <c r="A5" s="51"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="52"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
       <c r="J5" s="25" t="s">
         <v>73</v>
       </c>
@@ -3140,15 +3258,15 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
       <c r="J6" s="24" t="s">
         <v>72</v>
       </c>
@@ -3163,69 +3281,69 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="51" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="52"/>
-      <c r="J7" s="43" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="J7" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="43">
+      <c r="K7" s="45"/>
+      <c r="L7" s="44">
         <f>SUM(L2:L6)</f>
         <v>144100</v>
       </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="51">
+      <c r="B8" s="48"/>
+      <c r="C8" s="46">
         <v>13520</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="52"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="54">
+      <c r="B9" s="48"/>
+      <c r="C9" s="49">
         <v>44013</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="52"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="1:17" ht="21">
-      <c r="A10" s="51"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="52"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
       <c r="J10" s="39" t="s">
         <v>65</v>
       </c>
@@ -3240,15 +3358,15 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="21">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="52"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
       <c r="J11" s="39" t="s">
         <v>73</v>
       </c>
@@ -3263,17 +3381,17 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="21">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="51" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="52"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
       <c r="J12" s="39" t="s">
         <v>72</v>
       </c>
@@ -3288,17 +3406,17 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="21">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="51">
+      <c r="B13" s="48"/>
+      <c r="C13" s="46">
         <v>32500</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="52"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
       <c r="J13" s="39" t="s">
         <v>60</v>
       </c>
@@ -3313,17 +3431,17 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="21">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="54">
+      <c r="B14" s="48"/>
+      <c r="C14" s="49">
         <v>44013</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="52"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
       <c r="J14" s="39" t="s">
         <v>76</v>
       </c>
@@ -3338,13 +3456,13 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="21">
-      <c r="A15" s="51"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="52"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
       <c r="J15" s="39" t="s">
         <v>63</v>
       </c>
@@ -3374,15 +3492,15 @@
       </c>
     </row>
     <row r="17" spans="10:13" ht="18.75">
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="44"/>
-      <c r="L17" s="43">
+      <c r="K17" s="45"/>
+      <c r="L17" s="44">
         <f>SUM(L11:L16)</f>
         <v>469353</v>
       </c>
-      <c r="M17" s="44"/>
+      <c r="M17" s="45"/>
     </row>
     <row r="18" spans="10:13" ht="18.75">
       <c r="J18" s="24"/>
@@ -3410,6 +3528,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J8:M9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="A1:G1"/>
@@ -3426,19 +3557,6 @@
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J8:M9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Rice.xlsx
+++ b/Rice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="78">
   <si>
     <t>الشركة</t>
   </si>
@@ -509,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -607,44 +607,41 @@
     <xf numFmtId="17" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1565,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3017,9 +3014,9 @@
       <c r="D96" s="27">
         <v>43375</v>
       </c>
-      <c r="G96" s="43"/>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3032,8 +3029,9 @@
       <c r="D97" s="27">
         <v>43376</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3046,8 +3044,9 @@
       <c r="D98" s="27">
         <v>43376</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3060,8 +3059,9 @@
       <c r="D99" s="27">
         <v>43381</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3074,8 +3074,9 @@
       <c r="D100" s="27">
         <v>43381</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3083,13 +3084,14 @@
         <v>51</v>
       </c>
       <c r="C101" s="1">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D101" s="27">
         <v>43381</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3097,10 +3099,108 @@
         <v>51</v>
       </c>
       <c r="C102" s="1">
-        <v>2000</v>
+        <v>1750</v>
       </c>
       <c r="D102" s="27">
         <v>43381</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" s="1">
+        <v>465</v>
+      </c>
+      <c r="D103" s="27">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D104" s="27">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D105" s="27">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D106" s="27">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D107" s="27">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D108" s="27">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D109" s="27">
+        <v>43384</v>
       </c>
     </row>
   </sheetData>
@@ -3127,15 +3227,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="52"/>
       <c r="J1" s="25" t="s">
         <v>65</v>
       </c>
@@ -3150,17 +3250,17 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="52"/>
       <c r="J2" s="24" t="s">
         <v>72</v>
       </c>
@@ -3179,17 +3279,17 @@
       <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="1:17" ht="18.75">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="46">
+      <c r="B3" s="52"/>
+      <c r="C3" s="51">
         <v>28080</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="J3" s="24" t="s">
         <v>72</v>
       </c>
@@ -3208,17 +3308,17 @@
       <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="1:17" ht="18.75">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49">
+      <c r="B4" s="52"/>
+      <c r="C4" s="54">
         <v>44013</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="J4" s="24" t="s">
         <v>73</v>
       </c>
@@ -3237,13 +3337,13 @@
       <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="18.75">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="52"/>
       <c r="J5" s="25" t="s">
         <v>73</v>
       </c>
@@ -3258,15 +3358,15 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="52"/>
       <c r="J6" s="24" t="s">
         <v>72</v>
       </c>
@@ -3281,69 +3381,69 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="J7" s="44" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="52"/>
+      <c r="J7" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="44">
+      <c r="K7" s="44"/>
+      <c r="L7" s="43">
         <f>SUM(L2:L6)</f>
         <v>144100</v>
       </c>
-      <c r="M7" s="45"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="46">
+      <c r="B8" s="52"/>
+      <c r="C8" s="51">
         <v>13520</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="52"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49">
+      <c r="B9" s="52"/>
+      <c r="C9" s="54">
         <v>44013</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="52"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="1:17" ht="21">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="52"/>
       <c r="J10" s="39" t="s">
         <v>65</v>
       </c>
@@ -3358,15 +3458,15 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="21">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="52"/>
       <c r="J11" s="39" t="s">
         <v>73</v>
       </c>
@@ -3381,17 +3481,17 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="21">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="46" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="52"/>
       <c r="J12" s="39" t="s">
         <v>72</v>
       </c>
@@ -3406,17 +3506,17 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="21">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="46">
+      <c r="B13" s="52"/>
+      <c r="C13" s="51">
         <v>32500</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="52"/>
       <c r="J13" s="39" t="s">
         <v>60</v>
       </c>
@@ -3431,17 +3531,17 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="21">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49">
+      <c r="B14" s="52"/>
+      <c r="C14" s="54">
         <v>44013</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="52"/>
       <c r="J14" s="39" t="s">
         <v>76</v>
       </c>
@@ -3456,13 +3556,13 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="21">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="52"/>
       <c r="J15" s="39" t="s">
         <v>63</v>
       </c>
@@ -3492,15 +3592,15 @@
       </c>
     </row>
     <row r="17" spans="10:13" ht="18.75">
-      <c r="J17" s="44" t="s">
+      <c r="J17" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="45"/>
-      <c r="L17" s="44">
+      <c r="K17" s="44"/>
+      <c r="L17" s="43">
         <f>SUM(L11:L16)</f>
         <v>469353</v>
       </c>
-      <c r="M17" s="45"/>
+      <c r="M17" s="44"/>
     </row>
     <row r="18" spans="10:13" ht="18.75">
       <c r="J18" s="24"/>
@@ -3528,19 +3628,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J8:M9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="A1:G1"/>
@@ -3557,6 +3644,19 @@
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J8:M9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Rice.xlsx
+++ b/Rice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="78">
   <si>
     <t>الشركة</t>
   </si>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -1562,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="I106" sqref="I106"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3203,6 +3203,174 @@
         <v>43384</v>
       </c>
     </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D110" s="27">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D111" s="27">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D112" s="27">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D113" s="27">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D114" s="27">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D115" s="27">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D116" s="27">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D117" s="27">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D118" s="27">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D119" s="27">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D120" s="27">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D121" s="27">
+        <v>43396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3214,7 +3382,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="J1:M7"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
